--- a/.vscode/.python/verifica_CPF_online/validacao_CPF.xlsx
+++ b/.vscode/.python/verifica_CPF_online/validacao_CPF.xlsx
@@ -5,21 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myrath\Desktop\Projetos_VSCode\.vscode\.python\projeto_verifica_rg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myrath\Desktop\Projetos_VSCode\.vscode\.python\verifica_CPF_online\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -39,27 +34,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -78,42 +59,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -128,103 +85,278 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="LibreOffice">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -235,40 +367,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>